--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_25_34.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_25_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2930001.881857262</v>
+        <v>2927457.289162976</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283183</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8568226.843312066</v>
+        <v>8568226.843312068</v>
       </c>
     </row>
     <row r="11">
@@ -662,22 +662,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>88.09081815943081</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>187.52558716632</v>
+        <v>13.09783323005805</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,16 +707,16 @@
         <v>77.08171901666378</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>130.1712092340065</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -738,13 +738,13 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -756,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>58.90455890409149</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,28 +783,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.4328956284632</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="X3" t="n">
-        <v>78.53267753246318</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>15.40229248514491</v>
       </c>
     </row>
     <row r="4">
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>52.21594625443443</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>52.21594625443443</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>212.5735752579596</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>106.8899783819419</v>
+        <v>12.25188473404938</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>92.85788772760039</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,16 +941,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>23.94240680425909</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>139.4987618372555</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>209.7407415149288</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1015846853496</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -959,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -978,19 +978,19 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>85.72784911912727</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1023,16 +1023,16 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>141.3629830843606</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>193.5852120974427</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8339906239991</v>
       </c>
       <c r="V6" t="n">
-        <v>196.3506765115058</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1057,16 +1057,16 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>36.85894767157092</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>36.91115760589152</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1105,13 +1105,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>222.0983299894507</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>72.89889574101048</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>216.4127801057217</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>286.857785184483</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1148,7 +1148,7 @@
         <v>11.87073484362677</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>304.326804756183</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1184,13 +1184,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>208.0722578696038</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1215,13 +1215,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1257,19 +1257,19 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>31.66886087721421</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U9" t="n">
-        <v>20.27697994470972</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>115.4092584582117</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>31.68046530976974</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>108.0728512656385</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1345,10 +1345,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2350578157167</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>77.84303991612683</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1376,7 +1376,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722623</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1528,25 +1528,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>159.4718642460855</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>39.52129633183167</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1582,7 +1582,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1604,22 +1604,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,16 +1655,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695521</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1673,7 +1673,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="15">
@@ -1771,19 +1771,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>97.98413062224057</v>
+        <v>26.05480806223633</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1847,10 +1847,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1859,7 +1859,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -1904,13 +1904,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="18">
@@ -2002,19 +2002,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>104.8913819999782</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>99.97427419833815</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2144,7 +2144,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2239,25 +2239,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>20.43112068613158</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2330,10 +2330,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2476,25 +2476,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>110.0177171766861</v>
+        <v>42.71572132711237</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>110.0177171766861</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>73.9322284908436</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634814</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2950,7 +2950,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>110.0177171766861</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2959,13 +2959,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634815</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3190,22 +3190,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>34.2105855891487</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3424,22 +3424,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>121.8000472740347</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>108.2950343703271</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3664,22 +3664,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>108.2950343703271</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3727,7 +3727,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>90.85912858529821</v>
       </c>
     </row>
     <row r="41">
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3898,22 +3898,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>110.0177171766861</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>6.434538210426389</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3989,7 +3989,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H44" t="n">
         <v>283.1540821444137</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4135,25 +4135,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>42.71572132711237</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>160.1763464053464</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>672.2420264262255</v>
+        <v>161.9163864599159</v>
       </c>
       <c r="C2" t="n">
-        <v>672.2420264262255</v>
+        <v>161.9163864599159</v>
       </c>
       <c r="D2" t="n">
-        <v>482.8222414097407</v>
+        <v>161.9163864599159</v>
       </c>
       <c r="E2" t="n">
-        <v>293.4024563932559</v>
+        <v>161.9163864599159</v>
       </c>
       <c r="F2" t="n">
-        <v>204.4218319897904</v>
+        <v>154.9708857107125</v>
       </c>
       <c r="G2" t="n">
-        <v>15.0020469733056</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="H2" t="n">
-        <v>15.0020469733056</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="I2" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J2" t="n">
         <v>21.03371160678478</v>
@@ -4343,37 +4343,37 @@
         <v>509.4952041123828</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985584</v>
+        <v>649.4845259985582</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020266</v>
+        <v>734.4611726020265</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652798</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="R2" t="n">
-        <v>672.2420264262255</v>
+        <v>672.2420264262254</v>
       </c>
       <c r="S2" t="n">
-        <v>672.2420264262255</v>
+        <v>540.7559564928855</v>
       </c>
       <c r="T2" t="n">
-        <v>672.2420264262255</v>
+        <v>351.3361714764007</v>
       </c>
       <c r="U2" t="n">
-        <v>672.2420264262255</v>
+        <v>351.3361714764007</v>
       </c>
       <c r="V2" t="n">
-        <v>672.2420264262255</v>
+        <v>161.9163864599159</v>
       </c>
       <c r="W2" t="n">
-        <v>672.2420264262255</v>
+        <v>161.9163864599159</v>
       </c>
       <c r="X2" t="n">
-        <v>672.2420264262255</v>
+        <v>161.9163864599159</v>
       </c>
       <c r="Y2" t="n">
-        <v>672.2420264262255</v>
+        <v>161.9163864599159</v>
       </c>
     </row>
     <row r="3">
@@ -4383,31 +4383,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>408.1920857084654</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="C3" t="n">
-        <v>233.7390564273384</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D3" t="n">
-        <v>233.7390564273384</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E3" t="n">
-        <v>74.50160142188287</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F3" t="n">
-        <v>74.50160142188287</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G3" t="n">
-        <v>74.50160142188287</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H3" t="n">
-        <v>74.50160142188287</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K3" t="n">
         <v>67.13418877024208</v>
@@ -4425,34 +4425,34 @@
         <v>649.2101578476349</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017064</v>
+        <v>739.5989987017063</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652798</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="R3" t="n">
-        <v>676.9378076264281</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="S3" t="n">
-        <v>676.9378076264281</v>
+        <v>598.819273219876</v>
       </c>
       <c r="T3" t="n">
-        <v>676.9378076264281</v>
+        <v>409.3994882033912</v>
       </c>
       <c r="U3" t="n">
-        <v>676.9378076264281</v>
+        <v>219.9797031869064</v>
       </c>
       <c r="V3" t="n">
-        <v>676.9378076264281</v>
+        <v>219.9797031869064</v>
       </c>
       <c r="W3" t="n">
-        <v>487.5180226099433</v>
+        <v>30.55991817042167</v>
       </c>
       <c r="X3" t="n">
-        <v>408.1920857084654</v>
+        <v>30.55991817042167</v>
       </c>
       <c r="Y3" t="n">
-        <v>408.1920857084654</v>
+        <v>15.00204697330559</v>
       </c>
     </row>
     <row r="4">
@@ -4462,34 +4462,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="C4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="L4" t="n">
         <v>27.03967056230176</v>
@@ -4519,19 +4519,19 @@
         <v>67.74542702828987</v>
       </c>
       <c r="U4" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="V4" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="W4" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="X4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="Y4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
     </row>
     <row r="5">
@@ -4541,34 +4541,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>553.5136362396399</v>
+        <v>731.3583444302208</v>
       </c>
       <c r="C5" t="n">
-        <v>553.5136362396399</v>
+        <v>362.3958274898091</v>
       </c>
       <c r="D5" t="n">
-        <v>553.5136362396399</v>
+        <v>362.3958274898091</v>
       </c>
       <c r="E5" t="n">
-        <v>553.5136362396399</v>
+        <v>147.675044400961</v>
       </c>
       <c r="F5" t="n">
-        <v>142.5277314500324</v>
+        <v>140.7295436517575</v>
       </c>
       <c r="G5" t="n">
-        <v>34.55805631675769</v>
+        <v>128.3539025062531</v>
       </c>
       <c r="H5" t="n">
-        <v>34.55805631675769</v>
+        <v>128.3539025062531</v>
       </c>
       <c r="I5" t="n">
-        <v>34.55805631675769</v>
+        <v>34.5580563167577</v>
       </c>
       <c r="J5" t="n">
-        <v>111.6705539017221</v>
+        <v>111.6705539017217</v>
       </c>
       <c r="K5" t="n">
-        <v>277.9807166746981</v>
+        <v>277.9807166746979</v>
       </c>
       <c r="L5" t="n">
         <v>521.2049416030766</v>
@@ -4580,7 +4580,7 @@
         <v>1135.316836582752</v>
       </c>
       <c r="O5" t="n">
-        <v>1416.41363507924</v>
+        <v>1416.413635079241</v>
       </c>
       <c r="P5" t="n">
         <v>1621.822248332759</v>
@@ -4589,28 +4589,28 @@
         <v>1727.902815837885</v>
       </c>
       <c r="R5" t="n">
-        <v>1703.718566540653</v>
+        <v>1727.902815837885</v>
       </c>
       <c r="S5" t="n">
-        <v>1703.718566540653</v>
+        <v>1586.994975598233</v>
       </c>
       <c r="T5" t="n">
-        <v>1703.718566540653</v>
+        <v>1375.135640734669</v>
       </c>
       <c r="U5" t="n">
-        <v>1703.718566540653</v>
+        <v>1121.497676406032</v>
       </c>
       <c r="V5" t="n">
-        <v>1703.718566540653</v>
+        <v>1121.497676406032</v>
       </c>
       <c r="W5" t="n">
-        <v>1703.718566540653</v>
+        <v>1121.497676406032</v>
       </c>
       <c r="X5" t="n">
-        <v>1330.252808279573</v>
+        <v>1121.497676406032</v>
       </c>
       <c r="Y5" t="n">
-        <v>940.1134763037617</v>
+        <v>731.3583444302208</v>
       </c>
     </row>
     <row r="6">
@@ -4620,46 +4620,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>663.7175082377065</v>
+        <v>295.6048725869022</v>
       </c>
       <c r="C6" t="n">
-        <v>489.2644789565795</v>
+        <v>121.1518433057751</v>
       </c>
       <c r="D6" t="n">
-        <v>340.3300692953283</v>
+        <v>121.1518433057751</v>
       </c>
       <c r="E6" t="n">
-        <v>181.0926142898727</v>
+        <v>121.1518433057751</v>
       </c>
       <c r="F6" t="n">
-        <v>34.55805631675769</v>
+        <v>121.1518433057751</v>
       </c>
       <c r="G6" t="n">
-        <v>34.55805631675769</v>
+        <v>121.1518433057751</v>
       </c>
       <c r="H6" t="n">
-        <v>34.55805631675769</v>
+        <v>34.5580563167577</v>
       </c>
       <c r="I6" t="n">
-        <v>34.55805631675769</v>
+        <v>34.5580563167577</v>
       </c>
       <c r="J6" t="n">
-        <v>61.66788464787536</v>
+        <v>61.6678846478754</v>
       </c>
       <c r="K6" t="n">
-        <v>186.1577239806064</v>
+        <v>186.1577239806065</v>
       </c>
       <c r="L6" t="n">
-        <v>399.872217118998</v>
+        <v>399.8722171189982</v>
       </c>
       <c r="M6" t="n">
-        <v>668.6238185223503</v>
+        <v>668.6238185223506</v>
       </c>
       <c r="N6" t="n">
-        <v>958.8971200352482</v>
+        <v>958.8971200352487</v>
       </c>
       <c r="O6" t="n">
-        <v>1202.220686228319</v>
+        <v>1202.22068622832</v>
       </c>
       <c r="P6" t="n">
         <v>1378.176233639509</v>
@@ -4671,25 +4671,25 @@
         <v>1445.87866090655</v>
       </c>
       <c r="S6" t="n">
-        <v>1445.87866090655</v>
+        <v>1303.087768902146</v>
       </c>
       <c r="T6" t="n">
-        <v>1445.87866090655</v>
+        <v>1107.547150621901</v>
       </c>
       <c r="U6" t="n">
-        <v>1445.87866090655</v>
+        <v>879.4320085774569</v>
       </c>
       <c r="V6" t="n">
-        <v>1247.544644228261</v>
+        <v>879.4320085774569</v>
       </c>
       <c r="W6" t="n">
-        <v>1247.544644228261</v>
+        <v>879.4320085774569</v>
       </c>
       <c r="X6" t="n">
-        <v>1039.693144022728</v>
+        <v>671.5805083719241</v>
       </c>
       <c r="Y6" t="n">
-        <v>831.9328452577745</v>
+        <v>463.8202096069702</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>369.8190495858006</v>
+        <v>34.5580563167577</v>
       </c>
       <c r="C7" t="n">
-        <v>369.8190495858006</v>
+        <v>34.5580563167577</v>
       </c>
       <c r="D7" t="n">
-        <v>219.7024101734649</v>
+        <v>34.5580563167577</v>
       </c>
       <c r="E7" t="n">
-        <v>71.78931659107175</v>
+        <v>34.5580563167577</v>
       </c>
       <c r="F7" t="n">
-        <v>71.78931659107175</v>
+        <v>34.5580563167577</v>
       </c>
       <c r="G7" t="n">
-        <v>34.55805631675769</v>
+        <v>34.5580563167577</v>
       </c>
       <c r="H7" t="n">
-        <v>34.55805631675769</v>
+        <v>34.5580563167577</v>
       </c>
       <c r="I7" t="n">
-        <v>34.55805631675769</v>
+        <v>34.5580563167577</v>
       </c>
       <c r="J7" t="n">
-        <v>34.55805631675769</v>
+        <v>34.5580563167577</v>
       </c>
       <c r="K7" t="n">
-        <v>64.24066662574694</v>
+        <v>64.24066662574697</v>
       </c>
       <c r="L7" t="n">
-        <v>132.1299861584116</v>
+        <v>132.1299861584117</v>
       </c>
       <c r="M7" t="n">
-        <v>206.9680378347973</v>
+        <v>206.9680378347974</v>
       </c>
       <c r="N7" t="n">
-        <v>287.8841338195368</v>
+        <v>287.8841338195369</v>
       </c>
       <c r="O7" t="n">
-        <v>342.3101561934719</v>
+        <v>342.310156193472</v>
       </c>
       <c r="P7" t="n">
-        <v>369.8190495858006</v>
+        <v>369.8190495858008</v>
       </c>
       <c r="Q7" t="n">
-        <v>369.8190495858006</v>
+        <v>332.5350520040922</v>
       </c>
       <c r="R7" t="n">
-        <v>369.8190495858006</v>
+        <v>332.5350520040922</v>
       </c>
       <c r="S7" t="n">
-        <v>369.8190495858006</v>
+        <v>332.5350520040922</v>
       </c>
       <c r="T7" t="n">
-        <v>369.8190495858006</v>
+        <v>108.1933045400006</v>
       </c>
       <c r="U7" t="n">
-        <v>369.8190495858006</v>
+        <v>108.1933045400006</v>
       </c>
       <c r="V7" t="n">
-        <v>369.8190495858006</v>
+        <v>34.5580563167577</v>
       </c>
       <c r="W7" t="n">
-        <v>369.8190495858006</v>
+        <v>34.5580563167577</v>
       </c>
       <c r="X7" t="n">
-        <v>369.8190495858006</v>
+        <v>34.5580563167577</v>
       </c>
       <c r="Y7" t="n">
-        <v>369.8190495858006</v>
+        <v>34.5580563167577</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>721.0231940540818</v>
+        <v>369.7061514285186</v>
       </c>
       <c r="C8" t="n">
-        <v>352.0606771136701</v>
+        <v>369.7061514285186</v>
       </c>
       <c r="D8" t="n">
-        <v>62.30533854348529</v>
+        <v>369.7061514285186</v>
       </c>
       <c r="E8" t="n">
-        <v>62.30533854348529</v>
+        <v>369.7061514285186</v>
       </c>
       <c r="F8" t="n">
-        <v>55.35983779428182</v>
+        <v>362.7606506793152</v>
       </c>
       <c r="G8" t="n">
-        <v>43.36919653809316</v>
+        <v>350.7700094231265</v>
       </c>
       <c r="H8" t="n">
-        <v>43.36919653809316</v>
+        <v>43.36919653809314</v>
       </c>
       <c r="I8" t="n">
-        <v>43.36919653809316</v>
+        <v>43.36919653809314</v>
       </c>
       <c r="J8" t="n">
-        <v>152.5078184301913</v>
+        <v>152.5078184301905</v>
       </c>
       <c r="K8" t="n">
-        <v>366.8168396232738</v>
+        <v>366.8168396232726</v>
       </c>
       <c r="L8" t="n">
-        <v>669.5878927711894</v>
+        <v>669.587892771188</v>
       </c>
       <c r="M8" t="n">
-        <v>1038.148464578733</v>
+        <v>1038.148464578731</v>
       </c>
       <c r="N8" t="n">
-        <v>1417.286540135171</v>
+        <v>1417.286540135169</v>
       </c>
       <c r="O8" t="n">
-        <v>1761.960612545601</v>
+        <v>1761.960612545599</v>
       </c>
       <c r="P8" t="n">
-        <v>2021.630958172452</v>
+        <v>2021.63095817245</v>
       </c>
       <c r="Q8" t="n">
-        <v>2168.459826904658</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="R8" t="n">
-        <v>2168.459826904658</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="S8" t="n">
-        <v>2168.459826904658</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="T8" t="n">
-        <v>2168.459826904658</v>
+        <v>1958.285829056572</v>
       </c>
       <c r="U8" t="n">
-        <v>2168.459826904658</v>
+        <v>1704.678664719082</v>
       </c>
       <c r="V8" t="n">
-        <v>1837.396939561087</v>
+        <v>1704.678664719082</v>
       </c>
       <c r="W8" t="n">
-        <v>1484.628284290973</v>
+        <v>1351.910009448967</v>
       </c>
       <c r="X8" t="n">
-        <v>1111.162526029894</v>
+        <v>978.4442511878876</v>
       </c>
       <c r="Y8" t="n">
-        <v>721.0231940540818</v>
+        <v>588.3049192120759</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>672.528648459042</v>
+        <v>217.8222258192202</v>
       </c>
       <c r="C9" t="n">
-        <v>498.075619177915</v>
+        <v>43.36919653809314</v>
       </c>
       <c r="D9" t="n">
-        <v>349.1412095166637</v>
+        <v>43.36919653809314</v>
       </c>
       <c r="E9" t="n">
-        <v>189.9037545112082</v>
+        <v>43.36919653809314</v>
       </c>
       <c r="F9" t="n">
-        <v>43.36919653809316</v>
+        <v>43.36919653809314</v>
       </c>
       <c r="G9" t="n">
-        <v>43.36919653809316</v>
+        <v>43.36919653809314</v>
       </c>
       <c r="H9" t="n">
-        <v>43.36919653809316</v>
+        <v>43.36919653809314</v>
       </c>
       <c r="I9" t="n">
-        <v>43.36919653809316</v>
+        <v>43.36919653809314</v>
       </c>
       <c r="J9" t="n">
-        <v>89.55356510562348</v>
+        <v>89.55356510562342</v>
       </c>
       <c r="K9" t="n">
-        <v>246.6448318504525</v>
+        <v>246.6448318504524</v>
       </c>
       <c r="L9" t="n">
-        <v>504.1959674104406</v>
+        <v>504.1959674104403</v>
       </c>
       <c r="M9" t="n">
-        <v>824.1028628789504</v>
+        <v>824.1028628789501</v>
       </c>
       <c r="N9" t="n">
         <v>1166.885386873582</v>
       </c>
       <c r="O9" t="n">
-        <v>1458.244633128149</v>
+        <v>1458.244633128148</v>
       </c>
       <c r="P9" t="n">
-        <v>1672.75304868905</v>
+        <v>1672.753048689049</v>
       </c>
       <c r="Q9" t="n">
-        <v>1766.22704733349</v>
+        <v>1766.227047333489</v>
       </c>
       <c r="R9" t="n">
-        <v>1766.22704733349</v>
+        <v>1734.238298972667</v>
       </c>
       <c r="S9" t="n">
-        <v>1766.22704733349</v>
+        <v>1595.273638474385</v>
       </c>
       <c r="T9" t="n">
-        <v>1766.22704733349</v>
+        <v>1400.563316948361</v>
       </c>
       <c r="U9" t="n">
-        <v>1745.745249409541</v>
+        <v>1172.461727081625</v>
       </c>
       <c r="V9" t="n">
-        <v>1510.593141177798</v>
+        <v>1055.886718537977</v>
       </c>
       <c r="W9" t="n">
-        <v>1256.355784449597</v>
+        <v>801.649361809775</v>
       </c>
       <c r="X9" t="n">
-        <v>1048.504284244064</v>
+        <v>593.7978616042421</v>
       </c>
       <c r="Y9" t="n">
-        <v>840.7439854791101</v>
+        <v>386.0375628392882</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>488.2888770307324</v>
+        <v>43.36919653809314</v>
       </c>
       <c r="C10" t="n">
-        <v>488.2888770307324</v>
+        <v>43.36919653809314</v>
       </c>
       <c r="D10" t="n">
-        <v>338.1722376183967</v>
+        <v>43.36919653809314</v>
       </c>
       <c r="E10" t="n">
-        <v>190.2591440360035</v>
+        <v>43.36919653809314</v>
       </c>
       <c r="F10" t="n">
-        <v>43.36919653809316</v>
+        <v>43.36919653809314</v>
       </c>
       <c r="G10" t="n">
-        <v>43.36919653809316</v>
+        <v>43.36919653809314</v>
       </c>
       <c r="H10" t="n">
-        <v>43.36919653809316</v>
+        <v>43.36919653809314</v>
       </c>
       <c r="I10" t="n">
-        <v>43.36919653809316</v>
+        <v>43.36919653809314</v>
       </c>
       <c r="J10" t="n">
-        <v>43.36919653809316</v>
+        <v>43.36919653809314</v>
       </c>
       <c r="K10" t="n">
-        <v>92.71685897981553</v>
+        <v>92.71685897981547</v>
       </c>
       <c r="L10" t="n">
-        <v>185.7706748018947</v>
+        <v>185.7706748018946</v>
       </c>
       <c r="M10" t="n">
-        <v>287.1411594927341</v>
+        <v>287.1411594927338</v>
       </c>
       <c r="N10" t="n">
-        <v>393.9588065377472</v>
+        <v>393.9588065377469</v>
       </c>
       <c r="O10" t="n">
-        <v>472.3091036033673</v>
+        <v>472.309103603367</v>
       </c>
       <c r="P10" t="n">
-        <v>520.2893470406008</v>
+        <v>520.2893470406003</v>
       </c>
       <c r="Q10" t="n">
-        <v>520.2893470406008</v>
+        <v>520.2893470406003</v>
       </c>
       <c r="R10" t="n">
-        <v>520.2893470406008</v>
+        <v>411.1248508126826</v>
       </c>
       <c r="S10" t="n">
-        <v>520.2893470406008</v>
+        <v>411.1248508126826</v>
       </c>
       <c r="T10" t="n">
-        <v>520.2893470406008</v>
+        <v>411.1248508126826</v>
       </c>
       <c r="U10" t="n">
-        <v>520.2893470406008</v>
+        <v>121.9985297867061</v>
       </c>
       <c r="V10" t="n">
-        <v>520.2893470406008</v>
+        <v>43.36919653809314</v>
       </c>
       <c r="W10" t="n">
-        <v>520.2893470406008</v>
+        <v>43.36919653809314</v>
       </c>
       <c r="X10" t="n">
-        <v>520.2893470406008</v>
+        <v>43.36919653809314</v>
       </c>
       <c r="Y10" t="n">
-        <v>520.2893470406008</v>
+        <v>43.36919653809314</v>
       </c>
     </row>
     <row r="11">
@@ -5018,70 +5018,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168604</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>802.9288273958734</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C13" t="n">
-        <v>633.9926444679666</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D13" t="n">
-        <v>483.8760050556308</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="E13" t="n">
-        <v>483.8760050556308</v>
+        <v>215.8238677453428</v>
       </c>
       <c r="F13" t="n">
-        <v>336.9860575577204</v>
+        <v>215.8238677453428</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000583</v>
+        <v>215.8238677453428</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1205.369871369643</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>984.5772922261132</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="14">
@@ -5264,10 +5264,10 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
@@ -5276,7 +5276,7 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075809</v>
@@ -5285,13 +5285,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>139.2347658407936</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>139.2347658407936</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>634.5603720565524</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>1231.938859683104</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>741.8431516380886</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C16" t="n">
-        <v>572.9069687101817</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D16" t="n">
-        <v>422.7903292978459</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="E16" t="n">
-        <v>274.8772357154528</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="F16" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>1144.284195611858</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y16" t="n">
-        <v>923.4916164683283</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="17">
@@ -5495,16 +5495,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
@@ -5513,19 +5513,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5552,10 +5552,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>417.9651836029414</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637306</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N18" t="n">
-        <v>1814.118720444889</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O18" t="n">
-        <v>2366.028450684176</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5650,16 +5650,16 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D19" t="n">
-        <v>194.8007783998286</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E19" t="n">
-        <v>194.8007783998286</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F19" t="n">
-        <v>194.8007783998286</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
         <v>93.81666304797187</v>
@@ -5747,25 +5747,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5792,7 +5792,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5829,19 +5829,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>139.234765840794</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>139.234765840794</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438171</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O21" t="n">
         <v>1859.536823237711</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908938</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908938</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908938</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5966,70 +5966,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>95.58405025273906</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>95.58405025273906</v>
+        <v>251.562654109227</v>
       </c>
       <c r="L24" t="n">
-        <v>95.58405025273906</v>
+        <v>746.8882603249857</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438171</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908938</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908938</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6206,13 +6206,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6221,19 +6221,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355937</v>
@@ -6306,25 +6306,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M27" t="n">
-        <v>691.1951506745238</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N27" t="n">
-        <v>1318.793114229131</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O27" t="n">
-        <v>1870.702844468418</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P27" t="n">
-        <v>2294.325993963486</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2527.587654338369</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400717</v>
+        <v>695.5020655703173</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908938</v>
+        <v>695.5020655703173</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908938</v>
+        <v>545.3854261579816</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908938</v>
+        <v>397.4723325755884</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>250.5823850776781</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>250.5823850776781</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038405</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797806</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910815</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570824</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279809</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853367</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580267</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832669</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487574</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510515</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854712</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648825</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611865</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138474</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703173</v>
       </c>
     </row>
     <row r="29">
@@ -6449,61 +6449,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,22 +6534,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M30" t="n">
-        <v>1307.627092998424</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N30" t="n">
         <v>1307.627092998424</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6692,52 +6692,52 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
         <v>3094.515198591809</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,22 +6771,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M33" t="n">
-        <v>1307.627092998424</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N33" t="n">
         <v>1307.627092998424</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>696.7084350851671</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>527.7722521572603</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>377.6556127449245</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>377.6556127449245</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F34" t="n">
-        <v>377.6556127449245</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G34" t="n">
-        <v>210.4595134598044</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>878.3568999154069</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6929,16 +6929,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6947,37 +6947,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,25 +7008,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1307.627092998424</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O36" t="n">
         <v>1859.536823237711</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121648</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121648</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121648</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7154,13 +7154,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,19 +7169,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
         <v>2950.898526355937</v>
@@ -7248,19 +7248,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M39" t="n">
-        <v>1307.627092998424</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N39" t="n">
         <v>1307.627092998424</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400717</v>
+        <v>642.8692823226941</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121648</v>
+        <v>473.9330993947872</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121648</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121648</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121648</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703114</v>
+        <v>824.5177471529338</v>
       </c>
     </row>
     <row r="41">
@@ -7385,34 +7385,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111727</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075817</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7427,34 +7427,34 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>1058.183521551621</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400717</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908938</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908938</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908938</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>2190.563011941682</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1901.48778528588</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1646.803297079993</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1357.386127043032</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138415</v>
+        <v>1129.396576145015</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703114</v>
+        <v>908.6039970014847</v>
       </c>
     </row>
     <row r="44">
@@ -7628,67 +7628,67 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7710,7 +7710,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,34 +7719,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908938</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908938</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908938</v>
+        <v>365.9405071576781</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -23416,22 +23416,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>6.052274046183328</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>100.7734165143922</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23470,7 +23470,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23507,7 +23507,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23659,19 +23659,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>47.43691740069067</v>
+        <v>119.3662399606949</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23890,19 +23890,19 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>43.72409101823415</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>65.54986409393069</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -24127,25 +24127,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>124.9899273367997</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24364,25 +24364,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>57.22910392194177</v>
+        <v>124.5310997715155</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>57.22910392194177</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>66.36248435538029</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24838,7 +24838,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>57.22910392194177</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24847,16 +24847,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25078,19 +25078,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>119.4047645948081</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>106.0841272570752</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25123,7 +25123,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25312,25 +25312,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>45.44677382459312</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>57.22910392194174</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25552,22 +25552,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>57.22910392194174</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25615,7 +25615,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>127.7255247667966</v>
       </c>
     </row>
     <row r="41">
@@ -25786,25 +25786,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>57.22910392194177</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25837,7 +25837,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>210.9709121168619</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26023,25 +26023,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>97.57899151911153</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26074,7 +26074,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>57.22910392194191</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>741680.5388463133</v>
+        <v>741680.5388463134</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>741680.5388463133</v>
+        <v>741680.5388463134</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>741680.5388463133</v>
+        <v>741680.5388463135</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>741680.5388463134</v>
+        <v>741680.5388463133</v>
       </c>
     </row>
     <row r="13">
@@ -26323,37 +26323,37 @@
         <v>686074.6097365053</v>
       </c>
       <c r="F2" t="n">
+        <v>686074.6097365057</v>
+      </c>
+      <c r="G2" t="n">
         <v>686074.6097365055</v>
       </c>
-      <c r="G2" t="n">
-        <v>686074.6097365054</v>
-      </c>
       <c r="H2" t="n">
-        <v>686074.609736506</v>
+        <v>686074.6097365057</v>
       </c>
       <c r="I2" t="n">
-        <v>686074.6097365061</v>
+        <v>686074.6097365055</v>
       </c>
       <c r="J2" t="n">
-        <v>686074.6097365059</v>
+        <v>686074.6097365057</v>
       </c>
       <c r="K2" t="n">
+        <v>686074.6097365058</v>
+      </c>
+      <c r="L2" t="n">
+        <v>686074.6097365058</v>
+      </c>
+      <c r="M2" t="n">
+        <v>686074.6097365058</v>
+      </c>
+      <c r="N2" t="n">
         <v>686074.6097365057</v>
-      </c>
-      <c r="L2" t="n">
-        <v>686074.6097365057</v>
-      </c>
-      <c r="M2" t="n">
-        <v>686074.6097365059</v>
-      </c>
-      <c r="N2" t="n">
-        <v>686074.6097365058</v>
       </c>
       <c r="O2" t="n">
         <v>686074.6097365058</v>
       </c>
       <c r="P2" t="n">
-        <v>686074.6097365058</v>
+        <v>686074.6097365057</v>
       </c>
     </row>
     <row r="3">
@@ -26366,22 +26366,22 @@
         <v>591356.9025208454</v>
       </c>
       <c r="C3" t="n">
-        <v>270592.3620253124</v>
+        <v>270592.3620253127</v>
       </c>
       <c r="D3" t="n">
-        <v>115410.0540231942</v>
+        <v>115410.0540231937</v>
       </c>
       <c r="E3" t="n">
-        <v>601443.2075742639</v>
+        <v>601443.2075742644</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>5.466712796727994e-11</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26390,13 +26390,13 @@
         <v>49064.94472854459</v>
       </c>
       <c r="K3" t="n">
-        <v>62913.6376588198</v>
+        <v>62913.63765881971</v>
       </c>
       <c r="L3" t="n">
-        <v>27875.2536219752</v>
+        <v>27875.25362197508</v>
       </c>
       <c r="M3" t="n">
-        <v>157146.3805515977</v>
+        <v>157146.3805515978</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,43 +26421,43 @@
         <v>206604.4229263462</v>
       </c>
       <c r="D4" t="n">
-        <v>174202.9900888973</v>
+        <v>174202.9900888974</v>
       </c>
       <c r="E4" t="n">
         <v>16046.58397189197</v>
       </c>
       <c r="F4" t="n">
+        <v>16046.58397189202</v>
+      </c>
+      <c r="G4" t="n">
+        <v>16046.58397189201</v>
+      </c>
+      <c r="H4" t="n">
+        <v>16046.583971892</v>
+      </c>
+      <c r="I4" t="n">
+        <v>16046.583971892</v>
+      </c>
+      <c r="J4" t="n">
+        <v>16046.58397189208</v>
+      </c>
+      <c r="K4" t="n">
+        <v>16046.58397189198</v>
+      </c>
+      <c r="L4" t="n">
         <v>16046.58397189197</v>
       </c>
-      <c r="G4" t="n">
+      <c r="M4" t="n">
+        <v>16046.58397189199</v>
+      </c>
+      <c r="N4" t="n">
         <v>16046.583971892</v>
-      </c>
-      <c r="H4" t="n">
-        <v>16046.58397189197</v>
-      </c>
-      <c r="I4" t="n">
-        <v>16046.58397189196</v>
-      </c>
-      <c r="J4" t="n">
-        <v>16046.58397189197</v>
-      </c>
-      <c r="K4" t="n">
-        <v>16046.58397189194</v>
-      </c>
-      <c r="L4" t="n">
-        <v>16046.58397189193</v>
-      </c>
-      <c r="M4" t="n">
-        <v>16046.58397189195</v>
-      </c>
-      <c r="N4" t="n">
-        <v>16046.58397189197</v>
       </c>
       <c r="O4" t="n">
         <v>16046.58397189197</v>
       </c>
       <c r="P4" t="n">
-        <v>16046.58397189195</v>
+        <v>16046.583971892</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161358</v>
+        <v>56985.80041161357</v>
       </c>
       <c r="C5" t="n">
         <v>76435.73471936819</v>
@@ -26522,46 +26522,46 @@
         <v>-228993.7633819483</v>
       </c>
       <c r="C6" t="n">
-        <v>144252.9847136138</v>
+        <v>144252.9847136136</v>
       </c>
       <c r="D6" t="n">
-        <v>323073.3784166776</v>
+        <v>323073.3784166781</v>
       </c>
       <c r="E6" t="n">
-        <v>-32537.71163355769</v>
+        <v>-32572.44955899386</v>
       </c>
       <c r="F6" t="n">
-        <v>568905.4959407065</v>
+        <v>568870.7580152708</v>
       </c>
       <c r="G6" t="n">
-        <v>568905.4959407063</v>
+        <v>568870.758015271</v>
       </c>
       <c r="H6" t="n">
-        <v>568905.4959407068</v>
+        <v>568870.7580152708</v>
       </c>
       <c r="I6" t="n">
-        <v>568905.4959407072</v>
+        <v>568870.7580152708</v>
       </c>
       <c r="J6" t="n">
-        <v>519840.5512121622</v>
+        <v>519805.8132867261</v>
       </c>
       <c r="K6" t="n">
-        <v>505991.8582818868</v>
+        <v>505957.1203564513</v>
       </c>
       <c r="L6" t="n">
-        <v>541030.2423187315</v>
+        <v>540995.504393296</v>
       </c>
       <c r="M6" t="n">
-        <v>411759.1153891091</v>
+        <v>411724.3774636732</v>
       </c>
       <c r="N6" t="n">
-        <v>568905.4959407067</v>
+        <v>568870.7580152709</v>
       </c>
       <c r="O6" t="n">
-        <v>568905.4959407067</v>
+        <v>568870.758015271</v>
       </c>
       <c r="P6" t="n">
-        <v>568905.4959407067</v>
+        <v>568870.7580152709</v>
       </c>
     </row>
   </sheetData>
@@ -26695,19 +26695,19 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6.833390995909992e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>6.833390995909992e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>6.833390995909992e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>6.833390995909992e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6.833390995909992e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26738,10 +26738,10 @@
         <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
-        <v>758.8996292950616</v>
+        <v>758.8996292950618</v>
       </c>
       <c r="D3" t="n">
-        <v>853.7106645376851</v>
+        <v>853.7106645376849</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="C4" t="n">
-        <v>431.9757039594712</v>
+        <v>431.9757039594713</v>
       </c>
       <c r="D4" t="n">
-        <v>542.1149567261646</v>
+        <v>542.1149567261642</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26808,28 +26808,28 @@
         <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26917,7 +26917,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6.833390995909992e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26932,7 +26932,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>-2.966615459035109e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26960,22 +26960,22 @@
         <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
-        <v>210.429688382157</v>
+        <v>210.4296883821572</v>
       </c>
       <c r="D3" t="n">
-        <v>94.81103524262357</v>
+        <v>94.81103524262312</v>
       </c>
       <c r="E3" t="n">
-        <v>514.2648358039886</v>
+        <v>514.2648358039891</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="C4" t="n">
-        <v>244.4501167931512</v>
+        <v>244.4501167931513</v>
       </c>
       <c r="D4" t="n">
-        <v>110.1392527666934</v>
+        <v>110.1392527666929</v>
       </c>
       <c r="E4" t="n">
-        <v>630.5933313734838</v>
+        <v>630.5933313734844</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27036,13 +27036,13 @@
         <v>187.5255871663198</v>
       </c>
       <c r="K4" t="n">
-        <v>244.4501167931516</v>
+        <v>244.4501167931511</v>
       </c>
       <c r="L4" t="n">
-        <v>110.1392527666934</v>
+        <v>110.1392527666929</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734838</v>
+        <v>630.5933313734844</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27154,7 +27154,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>6.833390995909992e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="K4" t="n">
-        <v>244.4501167931512</v>
+        <v>244.4501167931513</v>
       </c>
       <c r="L4" t="n">
-        <v>110.1392527666934</v>
+        <v>110.1392527666929</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734838</v>
+        <v>630.5933313734844</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,22 +27382,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>167.157454454363</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>194.4047829059418</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>318.7852275822806</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>225.5722460637381</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>316.8938261062223</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199747</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,16 +27427,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900531</v>
+        <v>28.60460395604662</v>
       </c>
       <c r="T2" t="n">
-        <v>213.4438810562068</v>
+        <v>25.91829388988685</v>
       </c>
       <c r="U2" t="n">
         <v>251.1692605650303</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>140.226671303815</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27458,13 +27458,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -27476,7 +27476,7 @@
         <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>58.90455890409149</v>
       </c>
       <c r="J3" t="n">
         <v>15.37922103265839</v>
@@ -27503,28 +27503,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>72.4328956284632</v>
       </c>
       <c r="S3" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>195.4095977920013</v>
+        <v>7.884010625681327</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8637684100909</v>
+        <v>38.338181243771</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>64.16939599459965</v>
+        <v>64.16939599459968</v>
       </c>
       <c r="X3" t="n">
-        <v>127.2403076710143</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>190.2804032921595</v>
       </c>
     </row>
     <row r="4">
@@ -27591,7 +27591,7 @@
         <v>223.7196734901001</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2650814934503</v>
+        <v>234.0491352390159</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27600,7 +27600,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>173.4937091346027</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>169.3567948143022</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>305.3619063521074</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>308.2302560714735</v>
       </c>
       <c r="I5" t="n">
-        <v>92.85788772760041</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,16 +27661,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>23.94240680425904</v>
       </c>
       <c r="S5" t="n">
-        <v>139.4987618372555</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>209.7407415149288</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1015846853496</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27679,7 +27679,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27698,22 +27698,22 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>135.7111670171797</v>
       </c>
       <c r="H6" t="n">
-        <v>96.47037835246131</v>
+        <v>10.74252923333404</v>
       </c>
       <c r="I6" t="n">
-        <v>43.32085084937515</v>
+        <v>43.32085084937513</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,19 +27740,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>44.33060630074796</v>
+        <v>44.33060630074792</v>
       </c>
       <c r="S6" t="n">
-        <v>141.3629830843606</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>193.5852120974427</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8339906239991</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>36.44991063791952</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -27777,16 +27777,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>129.7635241586509</v>
+        <v>166.6224718302218</v>
       </c>
       <c r="H7" t="n">
         <v>150.0598964836597</v>
@@ -27795,7 +27795,7 @@
         <v>114.295721259913</v>
       </c>
       <c r="J7" t="n">
-        <v>30.24193919304049</v>
+        <v>30.24193919304047</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,7 +27816,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>36.91115760589155</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>115.7603165166224</v>
@@ -27825,13 +27825,13 @@
         <v>200.1672441130602</v>
       </c>
       <c r="T7" t="n">
-        <v>222.0983299894507</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2443834913144</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>179.2387475828175</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>166.3210615577589</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>67.82525643619999</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27868,10 +27868,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>304.326804756183</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>78.16360657708285</v>
+        <v>78.16360657708287</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,13 +27904,13 @@
         <v>130.8133087092504</v>
       </c>
       <c r="T8" t="n">
-        <v>208.0722578696038</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0710926941158</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27935,13 +27935,13 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>135.5072338470352</v>
@@ -27950,7 +27950,7 @@
         <v>94.50081326185511</v>
       </c>
       <c r="I9" t="n">
-        <v>36.29946757904878</v>
+        <v>36.29946757904879</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,19 +27977,19 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>31.66886087721419</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>137.5750138932992</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>192.7632183107638</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>205.5435940233588</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>117.3913286912135</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -28008,19 +28008,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>148.1515148721676</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.4515011109318</v>
@@ -28032,7 +28032,7 @@
         <v>109.1541654470835</v>
       </c>
       <c r="J10" t="n">
-        <v>18.15430933923912</v>
+        <v>18.15430933923915</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>22.59469128425539</v>
+        <v>22.59469128425542</v>
       </c>
       <c r="R10" t="n">
-        <v>108.0728512656385</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>197.1876907596158</v>
@@ -28065,10 +28065,10 @@
         <v>221.3678187343026</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2350578157167</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>174.2946034077012</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28324,25 +28324,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>6.833390995909992e-14</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>6.833390995909992e-14</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>6.833390995909992e-14</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>6.833390995909992e-14</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>6.833390995909992e-14</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>6.833390995909992e-14</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>6.833390995909992e-14</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>6.833390995909992e-14</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>6.833390995909992e-14</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>6.833390995909992e-14</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>6.833390995909992e-14</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>6.833390995909992e-14</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>6.833390995909992e-14</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>6.833390995909992e-14</v>
       </c>
     </row>
     <row r="15">
@@ -28567,19 +28567,19 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>6.833390995909992e-14</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>6.833390995909992e-14</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>6.833390995909992e-14</v>
       </c>
       <c r="H17" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>6.833390995909992e-14</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>6.833390995909992e-14</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>6.833390995909992e-14</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>6.833390995909992e-14</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>6.833390995909992e-14</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>6.833390995909992e-14</v>
       </c>
     </row>
     <row r="18">
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>6.833390995909992e-14</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -28864,7 +28864,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29457,7 +29457,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>6.284624630227752e-12</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -29509,7 +29509,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-4.887215837478045e-13</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -29746,7 +29746,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-5.590653145880544e-13</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30709,7 +30709,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -31276,43 +31276,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.050852781085672</v>
+        <v>3.050852781085673</v>
       </c>
       <c r="H5" t="n">
-        <v>31.24454604429365</v>
+        <v>31.24454604429366</v>
       </c>
       <c r="I5" t="n">
         <v>117.6180018428055</v>
       </c>
       <c r="J5" t="n">
-        <v>258.9373162286703</v>
+        <v>258.9373162286704</v>
       </c>
       <c r="K5" t="n">
-        <v>388.0799144520269</v>
+        <v>388.079914452027</v>
       </c>
       <c r="L5" t="n">
-        <v>481.4474502511777</v>
+        <v>481.4474502511778</v>
       </c>
       <c r="M5" t="n">
-        <v>535.70305339681</v>
+        <v>535.7030533968101</v>
       </c>
       <c r="N5" t="n">
-        <v>544.3712888610696</v>
+        <v>544.3712888610698</v>
       </c>
       <c r="O5" t="n">
-        <v>514.034371519149</v>
+        <v>514.0343715191491</v>
       </c>
       <c r="P5" t="n">
-        <v>438.7164434860964</v>
+        <v>438.7164434860965</v>
       </c>
       <c r="Q5" t="n">
-        <v>329.4577782634656</v>
+        <v>329.4577782634657</v>
       </c>
       <c r="R5" t="n">
-        <v>191.643131009873</v>
+        <v>191.6431310098731</v>
       </c>
       <c r="S5" t="n">
-        <v>69.52130774898983</v>
+        <v>69.52130774898986</v>
       </c>
       <c r="T5" t="n">
         <v>13.35510804920254</v>
@@ -31355,34 +31355,34 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.632350146030887</v>
+        <v>1.632350146030888</v>
       </c>
       <c r="H6" t="n">
         <v>15.76506588403515</v>
       </c>
       <c r="I6" t="n">
-        <v>56.20152915062485</v>
+        <v>56.20152915062487</v>
       </c>
       <c r="J6" t="n">
-        <v>154.2212916475936</v>
+        <v>154.2212916475937</v>
       </c>
       <c r="K6" t="n">
         <v>263.5887514316631</v>
       </c>
       <c r="L6" t="n">
-        <v>354.4276051721889</v>
+        <v>354.427605172189</v>
       </c>
       <c r="M6" t="n">
-        <v>413.6002979658085</v>
+        <v>413.6002979658086</v>
       </c>
       <c r="N6" t="n">
-        <v>424.5470671468666</v>
+        <v>424.5470671468667</v>
       </c>
       <c r="O6" t="n">
-        <v>388.3776244374453</v>
+        <v>388.3776244374454</v>
       </c>
       <c r="P6" t="n">
-        <v>311.707283587249</v>
+        <v>311.7072835872491</v>
       </c>
       <c r="Q6" t="n">
         <v>208.3680642547498</v>
@@ -31391,10 +31391,10 @@
         <v>101.348897663216</v>
       </c>
       <c r="S6" t="n">
-        <v>30.3201880194772</v>
+        <v>30.32018801947721</v>
       </c>
       <c r="T6" t="n">
-        <v>6.579516597378881</v>
+        <v>6.579516597378882</v>
       </c>
       <c r="U6" t="n">
         <v>0.1073914569757163</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.368507528236996</v>
+        <v>1.368507528236997</v>
       </c>
       <c r="H7" t="n">
         <v>12.16727602377985</v>
       </c>
       <c r="I7" t="n">
-        <v>41.15475366734532</v>
+        <v>41.15475366734533</v>
       </c>
       <c r="J7" t="n">
-        <v>96.75348224635562</v>
+        <v>96.75348224635565</v>
       </c>
       <c r="K7" t="n">
         <v>158.9956928260801</v>
@@ -31452,10 +31452,10 @@
         <v>203.4597465162531</v>
       </c>
       <c r="M7" t="n">
-        <v>214.5197755399138</v>
+        <v>214.5197755399139</v>
       </c>
       <c r="N7" t="n">
-        <v>209.4189747528488</v>
+        <v>209.4189747528489</v>
       </c>
       <c r="O7" t="n">
         <v>193.4323186275348</v>
@@ -31467,16 +31467,16 @@
         <v>114.5938440235543</v>
       </c>
       <c r="R7" t="n">
-        <v>61.5330748605471</v>
+        <v>61.53307486054712</v>
       </c>
       <c r="S7" t="n">
         <v>23.84935392391201</v>
       </c>
       <c r="T7" t="n">
-        <v>5.8472594388308</v>
+        <v>5.847259438830802</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07464586517656351</v>
+        <v>0.07464586517656353</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31519,43 +31519,43 @@
         <v>35.14799735958417</v>
       </c>
       <c r="I8" t="n">
-        <v>132.3122829933231</v>
+        <v>132.312282993323</v>
       </c>
       <c r="J8" t="n">
-        <v>291.2869367409261</v>
+        <v>291.286936740926</v>
       </c>
       <c r="K8" t="n">
-        <v>436.5636098258717</v>
+        <v>436.5636098258715</v>
       </c>
       <c r="L8" t="n">
-        <v>541.5957615840433</v>
+        <v>541.5957615840431</v>
       </c>
       <c r="M8" t="n">
-        <v>602.6296390934787</v>
+        <v>602.6296390934784</v>
       </c>
       <c r="N8" t="n">
-        <v>612.3808166839016</v>
+        <v>612.3808166839013</v>
       </c>
       <c r="O8" t="n">
-        <v>578.253840119091</v>
+        <v>578.2538401190909</v>
       </c>
       <c r="P8" t="n">
-        <v>493.5262741662303</v>
+        <v>493.5262741662302</v>
       </c>
       <c r="Q8" t="n">
-        <v>370.61767849284</v>
+        <v>370.6176784928398</v>
       </c>
       <c r="R8" t="n">
-        <v>215.5855378141322</v>
+        <v>215.5855378141321</v>
       </c>
       <c r="S8" t="n">
-        <v>78.20676087699499</v>
+        <v>78.20676087699498</v>
       </c>
       <c r="T8" t="n">
         <v>15.0235916945275</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2745602137206623</v>
+        <v>0.2745602137206622</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31595,46 +31595,46 @@
         <v>1.836283316175398</v>
       </c>
       <c r="H9" t="n">
-        <v>17.73463097464135</v>
+        <v>17.73463097464134</v>
       </c>
       <c r="I9" t="n">
-        <v>63.22291242095122</v>
+        <v>63.2229124209512</v>
       </c>
       <c r="J9" t="n">
         <v>173.4885040076064</v>
       </c>
       <c r="K9" t="n">
-        <v>296.5194861913581</v>
+        <v>296.519486191358</v>
       </c>
       <c r="L9" t="n">
-        <v>398.7070419616803</v>
+        <v>398.7070419616801</v>
       </c>
       <c r="M9" t="n">
-        <v>465.2723121730384</v>
+        <v>465.2723121730382</v>
       </c>
       <c r="N9" t="n">
-        <v>477.5866858152849</v>
+        <v>477.5866858152847</v>
       </c>
       <c r="O9" t="n">
-        <v>436.898513388451</v>
+        <v>436.8985133884509</v>
       </c>
       <c r="P9" t="n">
-        <v>350.6495746475636</v>
+        <v>350.6495746475635</v>
       </c>
       <c r="Q9" t="n">
-        <v>234.3999545349509</v>
+        <v>234.3999545349508</v>
       </c>
       <c r="R9" t="n">
-        <v>114.0106430867498</v>
+        <v>114.0106430867497</v>
       </c>
       <c r="S9" t="n">
-        <v>34.10815721053863</v>
+        <v>34.10815721053861</v>
       </c>
       <c r="T9" t="n">
-        <v>7.401510384057852</v>
+        <v>7.40151038405785</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1208081129062763</v>
+        <v>0.1208081129062762</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31677,7 +31677,7 @@
         <v>13.68736114619437</v>
       </c>
       <c r="I10" t="n">
-        <v>46.29630948017481</v>
+        <v>46.29630948017479</v>
       </c>
       <c r="J10" t="n">
         <v>108.841112100157</v>
@@ -31692,28 +31692,28 @@
         <v>241.3202129282508</v>
       </c>
       <c r="N10" t="n">
-        <v>235.5821576420142</v>
+        <v>235.5821576420141</v>
       </c>
       <c r="O10" t="n">
-        <v>217.5982526595399</v>
+        <v>217.5982526595398</v>
       </c>
       <c r="P10" t="n">
-        <v>186.1928964099895</v>
+        <v>186.1928964099894</v>
       </c>
       <c r="Q10" t="n">
-        <v>128.9103103451905</v>
+        <v>128.9103103451904</v>
       </c>
       <c r="R10" t="n">
-        <v>69.22054011153097</v>
+        <v>69.22054011153095</v>
       </c>
       <c r="S10" t="n">
-        <v>26.82890727735642</v>
+        <v>26.82890727735641</v>
       </c>
       <c r="T10" t="n">
-        <v>6.577770693978883</v>
+        <v>6.577770693978882</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08397154077419863</v>
+        <v>0.08397154077419861</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>552.0015769888923</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>170.9292585737925</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32309,19 +32309,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>312.3207226334981</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
@@ -32330,13 +32330,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>172.7144981745678</v>
       </c>
       <c r="K21" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>146.0225991093089</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>732.4825987614911</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33014,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33026,37 +33026,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>746.4857620875799</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>171.4104471179097</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
         <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>391.605194951448</v>
       </c>
       <c r="M30" t="n">
-        <v>377.6350660745949</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>579.5299594447137</v>
       </c>
       <c r="M33" t="n">
-        <v>377.6350660745949</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>377.6350660745949</v>
+        <v>302.967544750805</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>229.6463482471742</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>377.6350660745949</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>624.2063432190395</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>233.9389431948335</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>77.89141170198405</v>
+        <v>77.89141170198411</v>
       </c>
       <c r="K5" t="n">
-        <v>167.9900634070464</v>
+        <v>167.9900634070465</v>
       </c>
       <c r="L5" t="n">
-        <v>245.6810352811904</v>
+        <v>245.6810352811905</v>
       </c>
       <c r="M5" t="n">
-        <v>305.3568201695373</v>
+        <v>305.3568201695374</v>
       </c>
       <c r="N5" t="n">
-        <v>314.9582252644787</v>
+        <v>314.9582252644789</v>
       </c>
       <c r="O5" t="n">
-        <v>283.9361600974622</v>
+        <v>283.9361600974623</v>
       </c>
       <c r="P5" t="n">
-        <v>207.4834477308268</v>
+        <v>207.483447730827</v>
       </c>
       <c r="Q5" t="n">
-        <v>107.1520883890161</v>
+        <v>107.1520883890163</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>27.38366498092694</v>
+        <v>27.38366498092697</v>
       </c>
       <c r="K6" t="n">
         <v>125.7473124573041</v>
       </c>
       <c r="L6" t="n">
-        <v>215.8732253923147</v>
+        <v>215.8732253923149</v>
       </c>
       <c r="M6" t="n">
-        <v>271.4662640437902</v>
+        <v>271.4662640437903</v>
       </c>
       <c r="N6" t="n">
-        <v>293.2053550635333</v>
+        <v>293.2053550635334</v>
       </c>
       <c r="O6" t="n">
-        <v>245.7813799930009</v>
+        <v>245.781379993001</v>
       </c>
       <c r="P6" t="n">
-        <v>177.7328761729187</v>
+        <v>177.7328761729188</v>
       </c>
       <c r="Q6" t="n">
-        <v>68.38629016872824</v>
+        <v>68.38629016872829</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,22 +35094,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>29.98243465554469</v>
+        <v>29.98243465554472</v>
       </c>
       <c r="L7" t="n">
-        <v>68.57507023501481</v>
+        <v>68.57507023501486</v>
       </c>
       <c r="M7" t="n">
-        <v>75.59399159230878</v>
+        <v>75.59399159230884</v>
       </c>
       <c r="N7" t="n">
-        <v>81.73343028761565</v>
+        <v>81.7334302876157</v>
       </c>
       <c r="O7" t="n">
-        <v>54.97578017569197</v>
+        <v>54.97578017569202</v>
       </c>
       <c r="P7" t="n">
-        <v>27.78676100235228</v>
+        <v>27.78676100235234</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>110.2410322142398</v>
+        <v>110.2410322142397</v>
       </c>
       <c r="K8" t="n">
-        <v>216.4737587808911</v>
+        <v>216.473758780891</v>
       </c>
       <c r="L8" t="n">
-        <v>305.8293466140561</v>
+        <v>305.8293466140559</v>
       </c>
       <c r="M8" t="n">
-        <v>372.283405866206</v>
+        <v>372.2834058662057</v>
       </c>
       <c r="N8" t="n">
-        <v>382.9677530873107</v>
+        <v>382.9677530873104</v>
       </c>
       <c r="O8" t="n">
-        <v>348.1556286974043</v>
+        <v>348.1556286974042</v>
       </c>
       <c r="P8" t="n">
-        <v>262.2932784109608</v>
+        <v>262.2932784109607</v>
       </c>
       <c r="Q8" t="n">
-        <v>148.3119886183905</v>
+        <v>148.3119886183904</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>46.6508773409397</v>
+        <v>46.65087734093967</v>
       </c>
       <c r="K9" t="n">
-        <v>158.6780472169991</v>
+        <v>158.678047216999</v>
       </c>
       <c r="L9" t="n">
-        <v>260.1526621818061</v>
+        <v>260.152662181806</v>
       </c>
       <c r="M9" t="n">
-        <v>323.13827825102</v>
+        <v>323.1382782510199</v>
       </c>
       <c r="N9" t="n">
-        <v>346.2449737319515</v>
+        <v>346.2449737319514</v>
       </c>
       <c r="O9" t="n">
-        <v>294.3022689440066</v>
+        <v>294.3022689440065</v>
       </c>
       <c r="P9" t="n">
-        <v>216.6751672332334</v>
+        <v>216.6751672332333</v>
       </c>
       <c r="Q9" t="n">
-        <v>94.41818044892935</v>
+        <v>94.41818044892929</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>49.84612367850744</v>
+        <v>49.84612367850741</v>
       </c>
       <c r="L10" t="n">
-        <v>93.99375335563556</v>
+        <v>93.99375335563548</v>
       </c>
       <c r="M10" t="n">
-        <v>102.3944289806458</v>
+        <v>102.3944289806457</v>
       </c>
       <c r="N10" t="n">
-        <v>107.896613176781</v>
+        <v>107.8966131767809</v>
       </c>
       <c r="O10" t="n">
-        <v>79.14171420769708</v>
+        <v>79.14171420769702</v>
       </c>
       <c r="P10" t="n">
-        <v>48.46489236084184</v>
+        <v>48.46489236084182</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>418.027169574562</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>44.09163190712582</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35957,19 +35957,19 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>174.4792836591391</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
@@ -35978,13 +35978,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>45.87687150790109</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>8.181160134949948</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>590.3485648394727</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,28 +36674,28 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>615.1440500042467</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>25.73094315394571</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096412</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>253.0508151715738</v>
       </c>
       <c r="M30" t="n">
-        <v>235.5010321525766</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>440.9755796648395</v>
       </c>
       <c r="M33" t="n">
-        <v>235.5010321525766</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37388,25 +37388,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>235.5010321525766</v>
+        <v>160.8335108287866</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>91.80490927281522</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>235.5010321525766</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37862,25 +37862,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>485.6519634391653</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>91.80490927281522</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
